--- a/DOCS/直流充电桩监控系统设计细节.xlsx
+++ b/DOCS/直流充电桩监控系统设计细节.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>充电桩遥测遥信点表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,14 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,6 +511,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,15 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,17 +840,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -852,15 +860,15 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -870,17 +878,17 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -905,14 +913,14 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
@@ -930,12 +938,12 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
@@ -953,12 +961,12 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
@@ -976,12 +984,12 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
@@ -999,12 +1007,12 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
@@ -1022,12 +1030,12 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
@@ -1037,10 +1045,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
@@ -1050,10 +1058,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
@@ -1063,10 +1071,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
@@ -1076,10 +1084,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
@@ -1089,10 +1097,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
@@ -1102,10 +1110,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
@@ -1115,10 +1123,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
@@ -1128,10 +1136,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
@@ -1141,10 +1149,10 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
@@ -1154,10 +1162,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
@@ -1167,10 +1175,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
@@ -1180,10 +1188,10 @@
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
@@ -1193,10 +1201,10 @@
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
@@ -1206,10 +1214,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
@@ -1219,10 +1227,10 @@
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
@@ -1232,10 +1240,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
@@ -1245,10 +1253,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
@@ -1258,10 +1266,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
@@ -1271,10 +1279,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
@@ -1284,10 +1292,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
@@ -1297,10 +1305,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
@@ -1310,10 +1318,10 @@
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
@@ -1323,10 +1331,10 @@
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
@@ -1336,10 +1344,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
@@ -1349,10 +1357,10 @@
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
@@ -1362,10 +1370,10 @@
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
@@ -1375,10 +1383,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
@@ -1388,10 +1396,10 @@
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
@@ -1401,10 +1409,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
@@ -1414,10 +1422,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
@@ -1427,10 +1435,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
@@ -1440,10 +1448,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
@@ -1453,10 +1461,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2">
@@ -1466,10 +1474,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
@@ -1479,10 +1487,10 @@
       <c r="C44" s="3"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2">
@@ -1492,10 +1500,10 @@
       <c r="C45" s="3"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2">
@@ -1505,10 +1513,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2">
@@ -1518,10 +1526,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
@@ -1531,10 +1539,10 @@
       <c r="C48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
@@ -1544,10 +1552,10 @@
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
@@ -1557,10 +1565,10 @@
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2"/>
@@ -1568,10 +1576,10 @@
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2"/>
@@ -1579,10 +1587,10 @@
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2"/>
@@ -1590,10 +1598,10 @@
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2"/>
@@ -1601,56 +1609,50 @@
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -1675,43 +1677,49 @@
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1721,22 +1729,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D33"/>
+  <dimension ref="A3:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="9" style="8"/>
+    <col min="4" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B3" t="s">
@@ -1745,427 +1753,433 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="8">
+      <c r="E3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="8">
+      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="8">
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="8">
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="8">
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>85</v>
       </c>
     </row>
